--- a/Masterproef/Logboek.xlsx
+++ b/Masterproef/Logboek.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Mogelijkheden bekijken om data op te slaan: verschillende backends tegengekomen. Dit moment geniet Parse.com mijn voorkeur</t>
   </si>
   <si>
-    <t>Parse.com uitgetest met php + inleiding in swift</t>
-  </si>
-  <si>
     <t>programmeertaal swift eens bekeken + voorbeeld uitgewerkt in xCode</t>
   </si>
   <si>
@@ -49,14 +46,27 @@
   </si>
   <si>
     <t>Framework laravel voldoet aan alles eisen.</t>
+  </si>
+  <si>
+    <t>Bespreking met bedrijf Soenen in verband met hoe de data zou toekomen naar de webservice en wat de uitbreidingsmogelijkheden zijn.</t>
+  </si>
+  <si>
+    <t>Beginnen aan uitgebreid voorstel.</t>
+  </si>
+  <si>
+    <t>Bekijken wat de beste oplossing is voor de website, nogmaals alles afwegen in verband met database en welk framework.</t>
+  </si>
+  <si>
+    <t>Parse.com uitgetest met php.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="h\.mm&quot; u.&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -105,7 +115,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -116,6 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -470,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -481,9 +492,10 @@
     <col min="1" max="1" width="37.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="47" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="47" customHeight="1">
+    <row r="2" spans="1:5" ht="47" customHeight="1">
       <c r="A2" s="2">
         <v>41918</v>
       </c>
@@ -504,8 +516,12 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="4">
+        <f>SUM(B2:B200)/60</f>
+        <v>13.583333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>41930</v>
       </c>
@@ -513,10 +529,10 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" customHeight="1">
       <c r="A4" s="2">
         <v>41939</v>
       </c>
@@ -524,10 +540,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>41953</v>
       </c>
@@ -538,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>41961</v>
       </c>
@@ -546,10 +562,10 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="2">
         <v>41962</v>
       </c>
@@ -557,10 +573,10 @@
         <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>41964</v>
       </c>
@@ -568,8 +584,41 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="2">
+        <v>41967</v>
+      </c>
+      <c r="B9" s="3">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="2">
+        <v>41968</v>
+      </c>
+      <c r="B10" s="3">
+        <v>200</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>41969</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
